--- a/Estrutura bnaco.xlsx
+++ b/Estrutura bnaco.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sagre\SAGRE--SIST-AUX-GEST-REC-EXP-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27840" windowHeight="13995"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="27840" windowHeight="13995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>agentes</t>
   </si>
@@ -83,9 +84,6 @@
     <t>$Prev_total</t>
   </si>
   <si>
-    <t>$user (PRIMAIRY KEY)</t>
-  </si>
-  <si>
     <t>$Vcode (PRIMARY KEY)</t>
   </si>
   <si>
@@ -171,6 +169,12 @@
   </si>
   <si>
     <t>$conta</t>
+  </si>
+  <si>
+    <t>$Link_rota</t>
+  </si>
+  <si>
+    <t>$user_id (PRIMAIRY KEY)</t>
   </si>
 </sst>
 </file>
@@ -208,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -229,15 +233,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -270,34 +265,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -315,6 +307,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>377596</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>58589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="377596" y="1004556"/>
+          <a:ext cx="6766154" cy="3816533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,477 +615,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O23"/>
+  <dimension ref="A4:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:K21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16" style="5" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="5" customWidth="1"/>
-    <col min="13" max="15" width="0" style="5" hidden="1"/>
-    <col min="16" max="16384" width="9.140625" style="5" hidden="1"/>
+    <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="3" customWidth="1"/>
+    <col min="13" max="15" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="3" hidden="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="9" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="3" t="s">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="6" t="s">
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="J21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="E33" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
+  <mergeCells count="78">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
@@ -1067,57 +1157,37 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>